--- a/ql-sanbong-api/temp_invoices/phieu_nhap_PN5032.xlsx
+++ b/ql-sanbong-api/temp_invoices/phieu_nhap_PN5032.xlsx
@@ -73,25 +73,25 @@
     <t>Balo warrior xanh đen</t>
   </si>
   <si>
-    <t>144.000 VND</t>
-  </si>
-  <si>
-    <t>240.000 VND</t>
-  </si>
-  <si>
-    <t>200.000 VND</t>
-  </si>
-  <si>
-    <t>288.000 VND</t>
-  </si>
-  <si>
-    <t>720.000 VND</t>
+    <t>144000 VND</t>
+  </si>
+  <si>
+    <t>240000 VND</t>
+  </si>
+  <si>
+    <t>200000 VND</t>
+  </si>
+  <si>
+    <t>288000 VND</t>
+  </si>
+  <si>
+    <t>720000 VND</t>
   </si>
   <si>
     <t>Tổng tiền phiếu nhập:</t>
   </si>
   <si>
-    <t>1.408.000 VND</t>
+    <t>1408000 VND</t>
   </si>
 </sst>
 </file>
